--- a/normal/Excel 2021 Beginner to Advanced Course Files/Excel 2021 Intermediate Course Files/Exercise Files/Exercise02.xlsx
+++ b/normal/Excel 2021 Beginner to Advanced Course Files/Excel 2021 Intermediate Course Files/Exercise Files/Exercise02.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f21e54c367d3358c/Documents/01 Work Files/05 SSIT/Online Courses/Excel 2021 Intermediate/Exercise Files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Excel_Learning\normal\Excel 2021 Beginner to Advanced Course Files\Excel 2021 Intermediate Course Files\Exercise Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="8_{50C88C1D-D411-4808-9B5C-9347F0F7EDCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9B9A7A57-7C40-4DF9-9EAD-976E80B85147}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48D5DE0C-B36E-4CA1-B53B-A361566940F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{9919AEEA-C113-48AF-88F9-E2A96D3A5CFD}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9919AEEA-C113-48AF-88F9-E2A96D3A5CFD}"/>
   </bookViews>
   <sheets>
     <sheet name="E0201" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="34">
   <si>
     <t>Page, Lisa</t>
   </si>
@@ -143,7 +143,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -228,7 +228,7 @@
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -858,8 +858,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F3B29F9-399E-4DE1-A1DE-9DD7C2739EA1}">
   <dimension ref="A1:H744"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.796875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -900,7 +900,9 @@
       <c r="G3" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="H3" s="9"/>
+      <c r="H3" s="9" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -940,7 +942,10 @@
       <c r="G5" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="H5" s="9"/>
+      <c r="H5" s="9">
+        <f>_xlfn.IFNA(INDEX(B4:B27,MATCH(H3,A4:A27,0)),"Not Found")</f>
+        <v>1090</v>
+      </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
@@ -961,7 +966,10 @@
       <c r="G6" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="H6" s="9"/>
+      <c r="H6" s="9" t="str">
+        <f>INDEX(D4:D27,MATCH(H3,A4:A27,0))</f>
+        <v>East Loop</v>
+      </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
@@ -982,7 +990,10 @@
       <c r="G7" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="H7" s="9"/>
+      <c r="H7" s="9">
+        <f>VLOOKUP(H3,A3:E27,5,0)</f>
+        <v>7</v>
+      </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
@@ -6357,6 +6368,11 @@
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:E27">
     <sortCondition ref="D5:D27"/>
   </sortState>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H3" xr:uid="{3FEB8C52-13F4-484E-A738-6CFD5D8D6719}">
+      <formula1>$A$4:$A$27</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
